--- a/documentation/Jumpers.xlsx
+++ b/documentation/Jumpers.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="79">
   <si>
     <t xml:space="preserve">Cobra version</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t xml:space="preserve">JP19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICS trebuie sa fie OFF daca e prezent U63 (GAL 22V10)</t>
   </si>
   <si>
     <t xml:space="preserve">MA8</t>
@@ -610,7 +613,7 @@
   <dimension ref="B1:M36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H36" activeCellId="0" sqref="H36"/>
+      <selection pane="topLeft" activeCell="H26" activeCellId="0" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1205,16 +1208,19 @@
       <c r="G26" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="H26" s="9" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="3" t="n">
         <v>23</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>10</v>
@@ -1226,7 +1232,7 @@
         <v>10</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1234,10 +1240,10 @@
         <v>24</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>10</v>
@@ -1249,7 +1255,7 @@
         <v>10</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1257,10 +1263,10 @@
         <v>25</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>9</v>
@@ -1278,10 +1284,10 @@
         <v>26</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>10</v>
@@ -1293,7 +1299,7 @@
         <v>10</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1301,10 +1307,10 @@
         <v>27</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>9</v>
@@ -1321,10 +1327,10 @@
         <v>28</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>21</v>
@@ -1341,10 +1347,10 @@
         <v>29</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>9</v>
@@ -1361,10 +1367,10 @@
         <v>30</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>9</v>
@@ -1381,10 +1387,10 @@
         <v>31</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>9</v>
@@ -1401,10 +1407,10 @@
         <v>32</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>10</v>
@@ -1416,7 +1422,7 @@
         <v>10</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
